--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fcer2a-Cr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fcer2a-Cr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,9 +82,6 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
   </si>
   <si>
     <t>Cr2</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3332025</v>
+        <v>0.1941015</v>
       </c>
       <c r="H2">
-        <v>0.6664049999999999</v>
+        <v>0.388203</v>
       </c>
       <c r="I2">
-        <v>0.4292193749271381</v>
+        <v>0.3164664830997715</v>
       </c>
       <c r="J2">
-        <v>0.333921432844915</v>
+        <v>0.2358580439608777</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.8923635000000001</v>
+        <v>0.2187345</v>
       </c>
       <c r="N2">
-        <v>1.784727</v>
+        <v>0.437469</v>
       </c>
       <c r="O2">
-        <v>0.3792348257544297</v>
+        <v>0.2450705582458688</v>
       </c>
       <c r="P2">
-        <v>0.3016563721599399</v>
+        <v>0.1779142177157368</v>
       </c>
       <c r="Q2">
-        <v>0.29733774910875</v>
+        <v>0.04245669455175</v>
       </c>
       <c r="R2">
-        <v>1.189350996435</v>
+        <v>0.169826778207</v>
       </c>
       <c r="S2">
-        <v>0.1627749348609185</v>
+        <v>0.07755661767936782</v>
       </c>
       <c r="T2">
-        <v>0.1007295280184461</v>
+        <v>0.04196249938326341</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3332025</v>
+        <v>0.1941015</v>
       </c>
       <c r="H3">
-        <v>0.6664049999999999</v>
+        <v>0.388203</v>
       </c>
       <c r="I3">
-        <v>0.4292193749271381</v>
+        <v>0.3164664830997715</v>
       </c>
       <c r="J3">
-        <v>0.333921432844915</v>
+        <v>0.2358580439608777</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.250402</v>
+        <v>0.6615776666666667</v>
       </c>
       <c r="N3">
-        <v>0.500804</v>
+        <v>1.984733</v>
       </c>
       <c r="O3">
-        <v>0.1064153328083911</v>
+        <v>0.7412329014993033</v>
       </c>
       <c r="P3">
-        <v>0.08464640127211978</v>
+        <v>0.8071708374070103</v>
       </c>
       <c r="Q3">
-        <v>0.08343457240499999</v>
+        <v>0.1284132174665</v>
       </c>
       <c r="R3">
-        <v>0.33373828962</v>
+        <v>0.770479304799</v>
       </c>
       <c r="S3">
-        <v>0.045675522630681</v>
+        <v>0.2345753694953239</v>
       </c>
       <c r="T3">
-        <v>0.02826524759795188</v>
+        <v>0.1903777348530811</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -667,108 +661,108 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3332025</v>
+        <v>0.1941015</v>
       </c>
       <c r="H4">
-        <v>0.6664049999999999</v>
+        <v>0.388203</v>
       </c>
       <c r="I4">
-        <v>0.4292193749271381</v>
+        <v>0.3164664830997715</v>
       </c>
       <c r="J4">
-        <v>0.333921432844915</v>
+        <v>0.2358580439608777</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.050507666666667</v>
+        <v>0.01222466666666667</v>
       </c>
       <c r="N4">
-        <v>3.151523</v>
+        <v>0.036674</v>
       </c>
       <c r="O4">
-        <v>0.4464426121440712</v>
+        <v>0.01369654025482795</v>
       </c>
       <c r="P4">
-        <v>0.5326736217688253</v>
+        <v>0.01491494487725286</v>
       </c>
       <c r="Q4">
-        <v>0.3500317808024999</v>
+        <v>0.002372826137</v>
       </c>
       <c r="R4">
-        <v>2.100190684815</v>
+        <v>0.014236956822</v>
       </c>
       <c r="S4">
-        <v>0.191621818925317</v>
+        <v>0.00433449592507985</v>
       </c>
       <c r="T4">
-        <v>0.1778711390197365</v>
+        <v>0.003517809724533172</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3332025</v>
+        <v>0.01833433333333333</v>
       </c>
       <c r="H5">
-        <v>0.6664049999999999</v>
+        <v>0.055003</v>
       </c>
       <c r="I5">
-        <v>0.4292193749271381</v>
+        <v>0.029892617985842</v>
       </c>
       <c r="J5">
-        <v>0.333921432844915</v>
+        <v>0.03341782518934722</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.15979</v>
+        <v>0.2187345</v>
       </c>
       <c r="N5">
-        <v>0.47937</v>
+        <v>0.437469</v>
       </c>
       <c r="O5">
-        <v>0.06790722929310794</v>
+        <v>0.2450705582458688</v>
       </c>
       <c r="P5">
-        <v>0.08102360479911515</v>
+        <v>0.1779142177157368</v>
       </c>
       <c r="Q5">
-        <v>0.053242427475</v>
+        <v>0.0040103512345</v>
       </c>
       <c r="R5">
-        <v>0.31945456485</v>
+        <v>0.024062107407</v>
       </c>
       <c r="S5">
-        <v>0.02914709851022164</v>
+        <v>0.007325800577220799</v>
       </c>
       <c r="T5">
-        <v>0.02705551820878067</v>
+        <v>0.005945506226323954</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -797,40 +791,40 @@
         <v>0.055003</v>
       </c>
       <c r="I6">
-        <v>0.0236176231962219</v>
+        <v>0.029892617985842</v>
       </c>
       <c r="J6">
-        <v>0.02756083848525876</v>
+        <v>0.03341782518934722</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.8923635000000001</v>
+        <v>0.6615776666666667</v>
       </c>
       <c r="N6">
-        <v>1.784727</v>
+        <v>1.984733</v>
       </c>
       <c r="O6">
-        <v>0.3792348257544297</v>
+        <v>0.7412329014993033</v>
       </c>
       <c r="P6">
-        <v>0.3016563721599399</v>
+        <v>0.8071708374070103</v>
       </c>
       <c r="Q6">
-        <v>0.0163608898635</v>
+        <v>0.01212958546655556</v>
       </c>
       <c r="R6">
-        <v>0.098165339181</v>
+        <v>0.109166269199</v>
       </c>
       <c r="S6">
-        <v>0.008956625217552989</v>
+        <v>0.02215739196305593</v>
       </c>
       <c r="T6">
-        <v>0.008313902551149209</v>
+        <v>0.02697389394240648</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -859,134 +853,134 @@
         <v>0.055003</v>
       </c>
       <c r="I7">
-        <v>0.0236176231962219</v>
+        <v>0.029892617985842</v>
       </c>
       <c r="J7">
-        <v>0.02756083848525876</v>
+        <v>0.03341782518934722</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.250402</v>
+        <v>0.01222466666666667</v>
       </c>
       <c r="N7">
-        <v>0.500804</v>
+        <v>0.036674</v>
       </c>
       <c r="O7">
-        <v>0.1064153328083911</v>
+        <v>0.01369654025482795</v>
       </c>
       <c r="P7">
-        <v>0.08464640127211978</v>
+        <v>0.01491494487725286</v>
       </c>
       <c r="Q7">
-        <v>0.004590953735333333</v>
+        <v>0.0002241311135555556</v>
       </c>
       <c r="R7">
-        <v>0.027545722412</v>
+        <v>0.002017180022</v>
       </c>
       <c r="S7">
-        <v>0.002513277232569131</v>
+        <v>0.0004094254455652791</v>
       </c>
       <c r="T7">
-        <v>0.002332925793819295</v>
+        <v>0.0004984250206167858</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.01833433333333333</v>
+        <v>0.322969</v>
       </c>
       <c r="H8">
-        <v>0.055003</v>
+        <v>0.9689070000000001</v>
       </c>
       <c r="I8">
-        <v>0.0236176231962219</v>
+        <v>0.5265743107613805</v>
       </c>
       <c r="J8">
-        <v>0.02756083848525876</v>
+        <v>0.5886727042294938</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>1.050507666666667</v>
+        <v>0.2187345</v>
       </c>
       <c r="N8">
-        <v>3.151523</v>
+        <v>0.437469</v>
       </c>
       <c r="O8">
-        <v>0.4464426121440712</v>
+        <v>0.2450705582458688</v>
       </c>
       <c r="P8">
-        <v>0.5326736217688253</v>
+        <v>0.1779142177157368</v>
       </c>
       <c r="Q8">
-        <v>0.01926035772988888</v>
+        <v>0.0706444627305</v>
       </c>
       <c r="R8">
-        <v>0.173343219569</v>
+        <v>0.423866776383</v>
       </c>
       <c r="S8">
-        <v>0.01054391339235571</v>
+        <v>0.1290478602962251</v>
       </c>
       <c r="T8">
-        <v>0.01468093165492841</v>
+        <v>0.1047332436635977</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.01833433333333333</v>
+        <v>0.322969</v>
       </c>
       <c r="H9">
-        <v>0.055003</v>
+        <v>0.9689070000000001</v>
       </c>
       <c r="I9">
-        <v>0.0236176231962219</v>
+        <v>0.5265743107613805</v>
       </c>
       <c r="J9">
-        <v>0.02756083848525876</v>
+        <v>0.5886727042294938</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.15979</v>
+        <v>0.6615776666666667</v>
       </c>
       <c r="N9">
-        <v>0.47937</v>
+        <v>1.984733</v>
       </c>
       <c r="O9">
-        <v>0.06790722929310794</v>
+        <v>0.7412329014993033</v>
       </c>
       <c r="P9">
-        <v>0.08102360479911515</v>
+        <v>0.8071708374070103</v>
       </c>
       <c r="Q9">
-        <v>0.002929643123333333</v>
+        <v>0.2136690774256667</v>
       </c>
       <c r="R9">
-        <v>0.02636678811</v>
+        <v>1.923021696831</v>
       </c>
       <c r="S9">
-        <v>0.001603807353744065</v>
+        <v>0.3903142042206539</v>
       </c>
       <c r="T9">
-        <v>0.002233078485361849</v>
+        <v>0.4751594396315698</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,78 +1033,78 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.123411</v>
+        <v>0.322969</v>
       </c>
       <c r="H10">
-        <v>0.370233</v>
+        <v>0.9689070000000001</v>
       </c>
       <c r="I10">
-        <v>0.1589735739651805</v>
+        <v>0.5265743107613805</v>
       </c>
       <c r="J10">
-        <v>0.1855159157666456</v>
+        <v>0.5886727042294938</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.8923635000000001</v>
+        <v>0.01222466666666667</v>
       </c>
       <c r="N10">
-        <v>1.784727</v>
+        <v>0.036674</v>
       </c>
       <c r="O10">
-        <v>0.3792348257544297</v>
+        <v>0.01369654025482795</v>
       </c>
       <c r="P10">
-        <v>0.3016563721599399</v>
+        <v>0.01491494487725286</v>
       </c>
       <c r="Q10">
-        <v>0.1101274718985</v>
+        <v>0.003948188368666667</v>
       </c>
       <c r="R10">
-        <v>0.6607648313910002</v>
+        <v>0.035533695318</v>
       </c>
       <c r="S10">
-        <v>0.06028831562224417</v>
+        <v>0.007212246244501532</v>
       </c>
       <c r="T10">
-        <v>0.05596205812809531</v>
+        <v>0.008780020934326276</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.123411</v>
+        <v>0.077935</v>
       </c>
       <c r="H11">
-        <v>0.370233</v>
+        <v>0.233805</v>
       </c>
       <c r="I11">
-        <v>0.1589735739651805</v>
+        <v>0.127066588153006</v>
       </c>
       <c r="J11">
-        <v>0.1855159157666456</v>
+        <v>0.1420514266202812</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,648 +1113,152 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.250402</v>
+        <v>0.2187345</v>
       </c>
       <c r="N11">
-        <v>0.500804</v>
+        <v>0.437469</v>
       </c>
       <c r="O11">
-        <v>0.1064153328083911</v>
+        <v>0.2450705582458688</v>
       </c>
       <c r="P11">
-        <v>0.08464640127211978</v>
+        <v>0.1779142177157368</v>
       </c>
       <c r="Q11">
-        <v>0.030902361222</v>
+        <v>0.0170470732575</v>
       </c>
       <c r="R11">
-        <v>0.185414167332</v>
+        <v>0.102282439545</v>
       </c>
       <c r="S11">
-        <v>0.01691722578124406</v>
+        <v>0.03114027969305509</v>
       </c>
       <c r="T11">
-        <v>0.01570325464834826</v>
+        <v>0.02527296844255172</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.123411</v>
+        <v>0.077935</v>
       </c>
       <c r="H12">
-        <v>0.370233</v>
+        <v>0.233805</v>
       </c>
       <c r="I12">
-        <v>0.1589735739651805</v>
+        <v>0.127066588153006</v>
       </c>
       <c r="J12">
-        <v>0.1855159157666456</v>
+        <v>0.1420514266202812</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.050507666666667</v>
+        <v>0.6615776666666667</v>
       </c>
       <c r="N12">
-        <v>3.151523</v>
+        <v>1.984733</v>
       </c>
       <c r="O12">
-        <v>0.4464426121440712</v>
+        <v>0.7412329014993033</v>
       </c>
       <c r="P12">
-        <v>0.5326736217688253</v>
+        <v>0.8071708374070103</v>
       </c>
       <c r="Q12">
-        <v>0.129644201651</v>
+        <v>0.05156005545166668</v>
       </c>
       <c r="R12">
-        <v>1.166797814859</v>
+        <v>0.4640404990650001</v>
       </c>
       <c r="S12">
-        <v>0.07097257762289388</v>
+        <v>0.09418593582026964</v>
       </c>
       <c r="T12">
-        <v>0.09881943474717943</v>
+        <v>0.1146597689799529</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.123411</v>
+        <v>0.077935</v>
       </c>
       <c r="H13">
-        <v>0.370233</v>
+        <v>0.233805</v>
       </c>
       <c r="I13">
-        <v>0.1589735739651805</v>
+        <v>0.127066588153006</v>
       </c>
       <c r="J13">
-        <v>0.1855159157666456</v>
+        <v>0.1420514266202812</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.15979</v>
+        <v>0.01222466666666667</v>
       </c>
       <c r="N13">
-        <v>0.47937</v>
+        <v>0.036674</v>
       </c>
       <c r="O13">
-        <v>0.06790722929310794</v>
+        <v>0.01369654025482795</v>
       </c>
       <c r="P13">
-        <v>0.08102360479911515</v>
+        <v>0.01491494487725286</v>
       </c>
       <c r="Q13">
-        <v>0.01971984369</v>
+        <v>0.0009527293966666667</v>
       </c>
       <c r="R13">
-        <v>0.17747859321</v>
+        <v>0.00857456457</v>
       </c>
       <c r="S13">
-        <v>0.01079545493879837</v>
+        <v>0.001740372639681291</v>
       </c>
       <c r="T13">
-        <v>0.01503116824302263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.2419213333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.7257640000000001</v>
-      </c>
-      <c r="I14">
-        <v>0.3116342868822208</v>
-      </c>
-      <c r="J14">
-        <v>0.3636649706818781</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.8923635000000001</v>
-      </c>
-      <c r="N14">
-        <v>1.784727</v>
-      </c>
-      <c r="O14">
-        <v>0.3792348257544297</v>
-      </c>
-      <c r="P14">
-        <v>0.3016563721599399</v>
-      </c>
-      <c r="Q14">
-        <v>0.215881767738</v>
-      </c>
-      <c r="R14">
-        <v>1.295290606428</v>
-      </c>
-      <c r="S14">
-        <v>0.118182574484885</v>
-      </c>
-      <c r="T14">
-        <v>0.1097018557375462</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.2419213333333333</v>
-      </c>
-      <c r="H15">
-        <v>0.7257640000000001</v>
-      </c>
-      <c r="I15">
-        <v>0.3116342868822208</v>
-      </c>
-      <c r="J15">
-        <v>0.3636649706818781</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.5</v>
-      </c>
-      <c r="M15">
-        <v>0.250402</v>
-      </c>
-      <c r="N15">
-        <v>0.500804</v>
-      </c>
-      <c r="O15">
-        <v>0.1064153328083911</v>
-      </c>
-      <c r="P15">
-        <v>0.08464640127211978</v>
-      </c>
-      <c r="Q15">
-        <v>0.06057758570933334</v>
-      </c>
-      <c r="R15">
-        <v>0.363465514256</v>
-      </c>
-      <c r="S15">
-        <v>0.03316266635307716</v>
-      </c>
-      <c r="T15">
-        <v>0.03078293103695193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.2419213333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.7257640000000001</v>
-      </c>
-      <c r="I16">
-        <v>0.3116342868822208</v>
-      </c>
-      <c r="J16">
-        <v>0.3636649706818781</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.050507666666667</v>
-      </c>
-      <c r="N16">
-        <v>3.151523</v>
-      </c>
-      <c r="O16">
-        <v>0.4464426121440712</v>
-      </c>
-      <c r="P16">
-        <v>0.5326736217688253</v>
-      </c>
-      <c r="Q16">
-        <v>0.2541402153968889</v>
-      </c>
-      <c r="R16">
-        <v>2.287261938572</v>
-      </c>
-      <c r="S16">
-        <v>0.1391268250693535</v>
-      </c>
-      <c r="T16">
-        <v>0.1937147370435696</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.2419213333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.7257640000000001</v>
-      </c>
-      <c r="I17">
-        <v>0.3116342868822208</v>
-      </c>
-      <c r="J17">
-        <v>0.3636649706818781</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.15979</v>
-      </c>
-      <c r="N17">
-        <v>0.47937</v>
-      </c>
-      <c r="O17">
-        <v>0.06790722929310794</v>
-      </c>
-      <c r="P17">
-        <v>0.08102360479911515</v>
-      </c>
-      <c r="Q17">
-        <v>0.03865660985333334</v>
-      </c>
-      <c r="R17">
-        <v>0.34790948868</v>
-      </c>
-      <c r="S17">
-        <v>0.02116222097490515</v>
-      </c>
-      <c r="T17">
-        <v>0.02946544686381029</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.05942966666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.178289</v>
-      </c>
-      <c r="I18">
-        <v>0.07655514102923852</v>
-      </c>
-      <c r="J18">
-        <v>0.08933684222130246</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.8923635000000001</v>
-      </c>
-      <c r="N18">
-        <v>1.784727</v>
-      </c>
-      <c r="O18">
-        <v>0.3792348257544297</v>
-      </c>
-      <c r="P18">
-        <v>0.3016563721599399</v>
-      </c>
-      <c r="Q18">
-        <v>0.0530328653505</v>
-      </c>
-      <c r="R18">
-        <v>0.318197192103</v>
-      </c>
-      <c r="S18">
-        <v>0.02903237556882907</v>
-      </c>
-      <c r="T18">
-        <v>0.02694902772470305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.05942966666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.178289</v>
-      </c>
-      <c r="I19">
-        <v>0.07655514102923852</v>
-      </c>
-      <c r="J19">
-        <v>0.08933684222130246</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.5</v>
-      </c>
-      <c r="M19">
-        <v>0.250402</v>
-      </c>
-      <c r="N19">
-        <v>0.500804</v>
-      </c>
-      <c r="O19">
-        <v>0.1064153328083911</v>
-      </c>
-      <c r="P19">
-        <v>0.08464640127211978</v>
-      </c>
-      <c r="Q19">
-        <v>0.01488130739266667</v>
-      </c>
-      <c r="R19">
-        <v>0.08928784435600001</v>
-      </c>
-      <c r="S19">
-        <v>0.008146640810819734</v>
-      </c>
-      <c r="T19">
-        <v>0.007562042195048421</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.05942966666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.178289</v>
-      </c>
-      <c r="I20">
-        <v>0.07655514102923852</v>
-      </c>
-      <c r="J20">
-        <v>0.08933684222130246</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.050507666666667</v>
-      </c>
-      <c r="N20">
-        <v>3.151523</v>
-      </c>
-      <c r="O20">
-        <v>0.4464426121440712</v>
-      </c>
-      <c r="P20">
-        <v>0.5326736217688253</v>
-      </c>
-      <c r="Q20">
-        <v>0.06243132046077778</v>
-      </c>
-      <c r="R20">
-        <v>0.561881884147</v>
-      </c>
-      <c r="S20">
-        <v>0.034177477134151</v>
-      </c>
-      <c r="T20">
-        <v>0.04758737930341129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.05942966666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.178289</v>
-      </c>
-      <c r="I21">
-        <v>0.07655514102923852</v>
-      </c>
-      <c r="J21">
-        <v>0.08933684222130246</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.15979</v>
-      </c>
-      <c r="N21">
-        <v>0.47937</v>
-      </c>
-      <c r="O21">
-        <v>0.06790722929310794</v>
-      </c>
-      <c r="P21">
-        <v>0.08102360479911515</v>
-      </c>
-      <c r="Q21">
-        <v>0.009496266436666668</v>
-      </c>
-      <c r="R21">
-        <v>0.08546639793000001</v>
-      </c>
-      <c r="S21">
-        <v>0.005198647515438716</v>
-      </c>
-      <c r="T21">
-        <v>0.007238392998139715</v>
+        <v>0.002118689197776623</v>
       </c>
     </row>
   </sheetData>
